--- a/tests results.xlsx
+++ b/tests results.xlsx
@@ -9,20 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$70:$B$102</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$70:$C$102</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$D$70:$D$102</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$70:$B$102</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$70:$C$102</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$D$70:$D$102</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -196,9 +188,6 @@
   </si>
   <si>
     <t>branch&amp;bound</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>Graph instance</t>
@@ -527,6 +516,9 @@
   <si>
     <t>public/vc-exact_005.gr</t>
   </si>
+  <si>
+    <t>size of the solution</t>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +528,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -554,6 +546,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -616,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,16 +662,6 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -684,6 +671,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4826,6 +4829,2443 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> execution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$70:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$70:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>74.794637260000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.585247440000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.078055089999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.556703560000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.909955699999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.789215280000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.664374270000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.434235399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6253587060000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3236247299999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.171464405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1350683310000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0777309600000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0458921800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7935966040000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7308961690000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5044766699999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4358583229999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.431451526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.342668593</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3260781000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1435141919999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1391267279999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0203335769999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9886239090000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9799340839999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.803385665</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.740297558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4484699490000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3451836039999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2125032980000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1281510360000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7146338729999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B268-48FE-91DF-D9EF2AC9D620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="550085408"/>
+        <c:axId val="550087704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550085408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t># of vertices in an instance </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550087704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550087704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time measured by perf_couter()</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550085408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Nodes visited for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> different instance sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$70:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$70:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>17612308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13586683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10966147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27252144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7935483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8004151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12395728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6126310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>421432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>392446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>368178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>395642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>360184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>373481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>375226</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>399112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>362952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>369410</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>328746</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>357700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>356224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>359404</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>350600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>367582</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>383602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>357562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>344396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>357562</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>340922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>336080</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>343132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>321772</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B87-4AB3-8844-2E492D3D9D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="545346832"/>
+        <c:axId val="545353064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="545346832"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="128"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>size of the graph |V|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545353064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="545353064"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="200000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> visited</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545346832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -4903,6 +7343,71 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>328611</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5174,8 +7679,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N54" sqref="M54:N64"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5260,8 +7765,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -5280,28 +7785,28 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -7957,16 +10462,16 @@
     <row r="51" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="9" t="s">
         <v>6</v>
       </c>
@@ -7996,7 +10501,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="D52" s="16" t="s">
         <v>54</v>
@@ -8005,10 +10510,10 @@
         <v>55</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -8031,7 +10536,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="17" t="s">
         <v>23</v>
@@ -8048,7 +10553,9 @@
       <c r="F53" s="19">
         <v>3.4046996999677497E-2</v>
       </c>
-      <c r="G53" s="5"/>
+      <c r="G53" s="31">
+        <v>41</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="1"/>
@@ -8070,7 +10577,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="17" t="s">
         <v>12</v>
@@ -8087,7 +10594,9 @@
       <c r="F54" s="19">
         <v>2.5226555999324701E-2</v>
       </c>
-      <c r="G54" s="5"/>
+      <c r="G54" s="31">
+        <v>35</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="1"/>
@@ -8109,7 +10618,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="17" t="s">
         <v>50</v>
@@ -8126,7 +10635,9 @@
       <c r="F55" s="19">
         <v>1.5905634001683201E-2</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="31">
+        <v>30</v>
+      </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="1"/>
@@ -8148,7 +10659,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="9" t="s">
         <v>33</v>
@@ -8165,7 +10676,9 @@
       <c r="F56" s="20">
         <v>1.1858005998874399E-2</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="31">
+        <v>17</v>
+      </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="1"/>
@@ -8187,7 +10700,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="9" t="s">
         <v>11</v>
@@ -8204,7 +10717,9 @@
       <c r="F57" s="20">
         <v>3.8883530014572898E-3</v>
       </c>
-      <c r="G57" s="5"/>
+      <c r="G57" s="31">
+        <v>12</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="1"/>
@@ -8226,7 +10741,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="9" t="s">
         <v>35</v>
@@ -8243,7 +10758,9 @@
       <c r="F58" s="20">
         <v>5.0933790007547898E-3</v>
       </c>
-      <c r="G58" s="5"/>
+      <c r="G58" s="31">
+        <v>14</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="1"/>
@@ -8265,7 +10782,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="9" t="s">
         <v>37</v>
@@ -8282,7 +10799,9 @@
       <c r="F59" s="20">
         <v>7.3690680001163803E-3</v>
       </c>
-      <c r="G59" s="5"/>
+      <c r="G59" s="31">
+        <v>13</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="1"/>
@@ -8304,7 +10823,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="9" t="s">
         <v>34</v>
@@ -8321,7 +10840,9 @@
       <c r="F60" s="20">
         <v>1.12698320008348E-2</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="31">
+        <v>16</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="1"/>
@@ -8343,7 +10864,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="9" t="s">
         <v>14</v>
@@ -8360,7 +10881,9 @@
       <c r="F61" s="20">
         <v>7.3236490006820497E-3</v>
       </c>
-      <c r="G61" s="5"/>
+      <c r="G61" s="31">
+        <v>14</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="1"/>
@@ -8382,7 +10905,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="9" t="s">
         <v>19</v>
@@ -8399,7 +10922,9 @@
       <c r="F62" s="20">
         <v>4.5183440015534801E-3</v>
       </c>
-      <c r="G62" s="5"/>
+      <c r="G62" s="31">
+        <v>10</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="1"/>
@@ -8421,7 +10946,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="9" t="s">
         <v>21</v>
@@ -8438,7 +10963,9 @@
       <c r="F63" s="20">
         <v>6.8553210003301501E-3</v>
       </c>
-      <c r="G63" s="5"/>
+      <c r="G63" s="31">
+        <v>12</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="1"/>
@@ -8460,7 +10987,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="9" t="s">
         <v>25</v>
@@ -8477,7 +11004,9 @@
       <c r="F64" s="20">
         <v>4.6688819984410596E-3</v>
       </c>
-      <c r="G64" s="5"/>
+      <c r="G64" s="31">
+        <v>11</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="1"/>
@@ -8499,7 +11028,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="9" t="s">
         <v>26</v>
@@ -8516,7 +11045,9 @@
       <c r="F65" s="20">
         <v>5.7376879994990304E-3</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="31">
+        <v>10</v>
+      </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="1"/>
@@ -8538,7 +11069,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="9" t="s">
         <v>45</v>
@@ -8555,7 +11086,9 @@
       <c r="F66" s="20">
         <v>6.7122269992978502E-3</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="31">
+        <v>12</v>
+      </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="1"/>
@@ -8577,7 +11110,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="9" t="s">
         <v>40</v>
@@ -8594,7 +11127,9 @@
       <c r="F67" s="20">
         <v>3.6129060008533902E-3</v>
       </c>
-      <c r="G67" s="5"/>
+      <c r="G67" s="31">
+        <v>9</v>
+      </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="1"/>
@@ -8616,7 +11151,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="9" t="s">
         <v>24</v>
@@ -8633,7 +11168,9 @@
       <c r="F68" s="20">
         <v>6.6422310010238999E-3</v>
       </c>
-      <c r="G68" s="5"/>
+      <c r="G68" s="31">
+        <v>12</v>
+      </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="1"/>
@@ -8655,7 +11192,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="9" t="s">
         <v>39</v>
@@ -8672,7 +11209,9 @@
       <c r="F69" s="20">
         <v>1.03619519995845E-2</v>
       </c>
-      <c r="G69" s="5"/>
+      <c r="G69" s="31">
+        <v>14</v>
+      </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="1"/>
@@ -8694,7 +11233,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="9" t="s">
         <v>10</v>
@@ -8711,7 +11250,9 @@
       <c r="F70" s="20">
         <v>2.7300700003252102E-3</v>
       </c>
-      <c r="G70" s="5"/>
+      <c r="G70" s="31">
+        <v>8</v>
+      </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="1"/>
@@ -8733,7 +11274,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="9" t="s">
         <v>18</v>
@@ -8750,7 +11291,9 @@
       <c r="F71" s="20">
         <v>5.6014750007307096E-3</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="31">
+        <v>11</v>
+      </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="1"/>
@@ -8772,7 +11315,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="9" t="s">
         <v>32</v>
@@ -8789,7 +11332,9 @@
       <c r="F72" s="20">
         <v>3.6341190007078599E-3</v>
       </c>
-      <c r="G72" s="5"/>
+      <c r="G72" s="31">
+        <v>8</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="1"/>
@@ -8811,7 +11356,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="9" t="s">
         <v>46</v>
@@ -8828,7 +11373,9 @@
       <c r="F73" s="20">
         <v>8.2373240002198093E-3</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="31">
+        <v>12</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="1"/>
@@ -8850,7 +11397,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="9" t="s">
         <v>47</v>
@@ -8867,7 +11414,9 @@
       <c r="F74" s="20">
         <v>3.2468350000272E-3</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="31">
+        <v>10</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="1"/>
@@ -8889,7 +11438,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="9" t="s">
         <v>43</v>
@@ -8906,7 +11455,9 @@
       <c r="F75" s="20">
         <v>6.4163290007854803E-3</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" s="31">
+        <v>10</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="1"/>
@@ -8928,7 +11479,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="9" t="s">
         <v>38</v>
@@ -8945,7 +11496,9 @@
       <c r="F76" s="20">
         <v>5.7281379995401897E-3</v>
       </c>
-      <c r="G76" s="5"/>
+      <c r="G76" s="31">
+        <v>10</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="1"/>
@@ -8967,7 +11520,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="9" t="s">
         <v>17</v>
@@ -8984,7 +11537,9 @@
       <c r="F77" s="20">
         <v>4.3200540003454002E-3</v>
       </c>
-      <c r="G77" s="5"/>
+      <c r="G77" s="31">
+        <v>8</v>
+      </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="1"/>
@@ -9006,7 +11561,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="9" t="s">
         <v>22</v>
@@ -9023,7 +11578,9 @@
       <c r="F78" s="20">
         <v>2.6833699994313E-3</v>
       </c>
-      <c r="G78" s="5"/>
+      <c r="G78" s="31">
+        <v>8</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="1"/>
@@ -9045,7 +11602,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="9" t="s">
         <v>27</v>
@@ -9062,7 +11619,9 @@
       <c r="F79" s="20">
         <v>1.9953210012317799E-3</v>
       </c>
-      <c r="G79" s="5"/>
+      <c r="G79" s="31">
+        <v>6</v>
+      </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="1"/>
@@ -9084,7 +11643,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="9" t="s">
         <v>28</v>
@@ -9101,7 +11660,9 @@
       <c r="F80" s="20">
         <v>2.8916920000483502E-3</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="31">
+        <v>7</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="1"/>
@@ -9123,7 +11684,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="9" t="s">
         <v>48</v>
@@ -9140,7 +11701,9 @@
       <c r="F81" s="20">
         <v>1.8877709990192601E-3</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="31">
+        <v>7</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="1"/>
@@ -9162,7 +11725,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="9" t="s">
         <v>29</v>
@@ -9179,7 +11742,9 @@
       <c r="F82" s="20">
         <v>1.6390490000048801E-3</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="31">
+        <v>5</v>
+      </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="1"/>
@@ -9201,7 +11766,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="9" t="s">
         <v>30</v>
@@ -9218,7 +11783,9 @@
       <c r="F83" s="20">
         <v>2.47636300082376E-3</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="31">
+        <v>6</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="1"/>
@@ -9240,7 +11807,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="9" t="s">
         <v>31</v>
@@ -9257,7 +11824,9 @@
       <c r="F84" s="20">
         <v>1.9080169986409601E-3</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="31">
+        <v>5</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="1"/>
@@ -9279,7 +11848,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="9" t="s">
         <v>41</v>
@@ -9296,7 +11865,9 @@
       <c r="F85" s="20">
         <v>2.0154110006842499E-3</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="31">
+        <v>6</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="1"/>
@@ -9318,7 +11889,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="9" t="s">
         <v>9</v>
@@ -9335,7 +11906,9 @@
       <c r="F86" s="20">
         <v>1.53739400047925E-3</v>
       </c>
-      <c r="G86" s="5"/>
+      <c r="G86" s="31">
+        <v>4</v>
+      </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="1"/>
@@ -9357,7 +11930,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="9" t="s">
         <v>42</v>
@@ -9374,7 +11947,9 @@
       <c r="F87" s="20">
         <v>1.4368069987540301E-3</v>
       </c>
-      <c r="G87" s="5"/>
+      <c r="G87" s="31">
+        <v>5</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="1"/>
@@ -9396,7 +11971,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="9" t="s">
         <v>49</v>
@@ -9413,7 +11988,9 @@
       <c r="F88" s="20">
         <v>1.4284009994298601E-3</v>
       </c>
-      <c r="G88" s="5"/>
+      <c r="G88" s="31">
+        <v>5</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="1"/>
@@ -9435,7 +12012,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="9" t="s">
         <v>36</v>
@@ -9452,7 +12029,9 @@
       <c r="F89" s="20">
         <v>9.7614300102577501E-4</v>
       </c>
-      <c r="G89" s="5"/>
+      <c r="G89" s="31">
+        <v>5</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="1"/>
@@ -9474,7 +12053,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="9" t="s">
         <v>44</v>
@@ -9491,7 +12070,9 @@
       <c r="F90" s="20">
         <v>8.68110000737942E-4</v>
       </c>
-      <c r="G90" s="5"/>
+      <c r="G90" s="31">
+        <v>4</v>
+      </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="1"/>
@@ -9513,7 +12094,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="9" t="s">
         <v>15</v>
@@ -9530,7 +12111,9 @@
       <c r="F91" s="20">
         <v>3.6869199902866902E-4</v>
       </c>
-      <c r="G91" s="5"/>
+      <c r="G91" s="31">
+        <v>2</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="1"/>
@@ -9552,7 +12135,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="9" t="s">
         <v>16</v>
@@ -9569,7 +12152,9 @@
       <c r="F92" s="20">
         <v>3.85164999897824E-4</v>
       </c>
-      <c r="G92" s="5"/>
+      <c r="G92" s="31">
+        <v>3</v>
+      </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="1"/>
@@ -9591,7 +12176,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="9" t="s">
         <v>20</v>
@@ -9608,7 +12193,9 @@
       <c r="F93" s="20">
         <v>3.6957100019208101E-4</v>
       </c>
-      <c r="G93" s="5"/>
+      <c r="G93" s="31">
+        <v>2</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="1"/>
@@ -9630,7 +12217,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="9" t="s">
         <v>51</v>
@@ -9647,7 +12234,9 @@
       <c r="F94" s="20">
         <v>3.8738200055377E-4</v>
       </c>
-      <c r="G94" s="5"/>
+      <c r="G94" s="31">
+        <v>1</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="1"/>
@@ -9669,7 +12258,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="9" t="s">
         <v>52</v>
@@ -9686,7 +12275,9 @@
       <c r="F95" s="20">
         <v>3.5506300082488402E-4</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="31">
+        <v>2</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="1"/>
       <c r="J95" s="3"/>
@@ -9712,7 +12303,7 @@
     <row r="96" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" s="21">
         <f>AVERAGE(D56:D95)</f>
@@ -9751,13 +12342,13 @@
     </row>
     <row r="97" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
+      <c r="B97" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1"/>
@@ -36883,7 +39474,8 @@
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -36891,8 +39483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36904,1394 +39496,1394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="24">
+        <v>6160</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="28">
-        <v>6160</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C5" s="24">
+        <v>60541</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29" t="s">
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="28">
-        <v>60541</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="C6" s="24">
+        <v>8794</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29" t="s">
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="28">
-        <v>8794</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C7" s="24">
+        <v>38452</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29" t="s">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="28">
-        <v>38452</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C8" s="24">
+        <v>9877</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="28">
-        <v>9877</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="C9" s="24">
+        <v>45307</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="28">
-        <v>45307</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C10" s="24">
+        <v>53610</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29" t="s">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="28">
-        <v>53610</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="C11" s="24">
+        <v>23541</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29" t="s">
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="28">
-        <v>23541</v>
-      </c>
-      <c r="D11" s="26" t="s">
+      <c r="C12" s="24">
+        <v>24765</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29" t="s">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="28">
-        <v>24765</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="C13" s="24">
+        <v>27717</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="29" t="s">
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="28">
-        <v>27717</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="C14" s="24">
+        <v>23194</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29" t="s">
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="28">
-        <v>23194</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C15" s="24">
+        <v>65866</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29" t="s">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="28">
-        <v>65866</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="C16" s="24">
+        <v>13431</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29" t="s">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="28">
-        <v>13431</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C17" s="24">
+        <v>6795</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29" t="s">
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="28">
-        <v>6795</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="C18" s="24">
+        <v>200</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="29" t="s">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C19" s="24">
         <v>200</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29" t="s">
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C20" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="24">
+        <v>13590</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="24">
+        <v>57316</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="24">
+        <v>13590</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="24">
+        <v>66992</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="24">
+        <v>450</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="24">
+        <v>29076</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="24">
+        <v>26300</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="24">
+        <v>2980</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="24">
+        <v>138141</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="24">
+        <v>4768</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="24">
+        <v>56860</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="24">
+        <v>15783</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="24">
+        <v>18096</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="24">
+        <v>72420</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="24">
+        <v>7400</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="24">
+        <v>7030</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="24">
+        <v>1150</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="24">
+        <v>1534</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="24">
+        <v>1534</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="24">
+        <v>5066</v>
+      </c>
+      <c r="D70" s="24">
+        <v>74.794637260000002</v>
+      </c>
+      <c r="E70" s="24">
+        <v>17612308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="24">
+        <v>4579</v>
+      </c>
+      <c r="D71" s="24">
+        <v>62.585247440000003</v>
+      </c>
+      <c r="E71" s="24">
+        <v>13586683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="24">
+        <v>4227</v>
+      </c>
+      <c r="D72" s="24">
+        <v>53.078055089999999</v>
+      </c>
+      <c r="E72" s="24">
+        <v>10966147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="24">
+        <v>11470</v>
+      </c>
+      <c r="D73" s="24">
+        <v>49.556703560000003</v>
+      </c>
+      <c r="E73" s="24">
+        <v>27252144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
+      <c r="B74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="24">
+        <v>3523</v>
+      </c>
+      <c r="D74" s="24">
+        <v>36.909955699999998</v>
+      </c>
+      <c r="E74" s="24">
+        <v>7935483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="24">
+        <v>3523</v>
+      </c>
+      <c r="D75" s="24">
+        <v>36.789215280000001</v>
+      </c>
+      <c r="E75" s="24">
+        <v>8004151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="24">
+        <v>4410</v>
+      </c>
+      <c r="D76" s="24">
+        <v>33.664374270000003</v>
+      </c>
+      <c r="E76" s="24">
+        <v>12395728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="24">
+        <v>2980</v>
+      </c>
+      <c r="D77" s="24">
+        <v>27.434235399999999</v>
+      </c>
+      <c r="E77" s="24">
+        <v>6126310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="24">
         <v>200</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="28">
-        <v>13590</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="28">
-        <v>57316</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="28">
-        <v>13590</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="28">
-        <v>66992</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="28">
-        <v>450</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="26"/>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="26"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="28">
-        <v>29076</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="26"/>
-    </row>
-    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="28">
-        <v>26300</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="28">
-        <v>2980</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="28">
-        <v>138141</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="28">
-        <v>4768</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="26"/>
-    </row>
-    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="26"/>
-    </row>
-    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="28">
-        <v>56860</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="26"/>
-    </row>
-    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="28">
-        <v>15783</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="28">
-        <v>18096</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="28">
-        <v>72420</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="28">
-        <v>7400</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="28">
-        <v>7030</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="26"/>
-    </row>
-    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="28">
-        <v>1150</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="28">
-        <v>1534</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="28">
-        <v>1534</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="26"/>
-    </row>
-    <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="28">
-        <v>5066</v>
-      </c>
-      <c r="D70" s="28">
-        <v>74.794637260000002</v>
-      </c>
-      <c r="E70" s="28">
-        <v>17612308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="28">
-        <v>4579</v>
-      </c>
-      <c r="D71" s="28">
-        <v>62.585247440000003</v>
-      </c>
-      <c r="E71" s="28">
-        <v>13586683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="28">
-        <v>4227</v>
-      </c>
-      <c r="D72" s="28">
-        <v>53.078055089999999</v>
-      </c>
-      <c r="E72" s="28">
-        <v>10966147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="28">
-        <v>11470</v>
-      </c>
-      <c r="D73" s="28">
-        <v>49.556703560000003</v>
-      </c>
-      <c r="E73" s="28">
-        <v>27252144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="28">
-        <v>3523</v>
-      </c>
-      <c r="D74" s="28">
-        <v>36.909955699999998</v>
-      </c>
-      <c r="E74" s="28">
-        <v>7935483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="28">
-        <v>3523</v>
-      </c>
-      <c r="D75" s="28">
-        <v>36.789215280000001</v>
-      </c>
-      <c r="E75" s="28">
-        <v>8004151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="28">
-        <v>4410</v>
-      </c>
-      <c r="D76" s="28">
-        <v>33.664374270000003</v>
-      </c>
-      <c r="E76" s="28">
-        <v>12395728</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="28">
-        <v>2980</v>
-      </c>
-      <c r="D77" s="28">
-        <v>27.434235399999999</v>
-      </c>
-      <c r="E77" s="28">
-        <v>6126310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="29" t="s">
+      <c r="D78" s="24">
+        <v>5.6253587060000001</v>
+      </c>
+      <c r="E78" s="24">
+        <v>421432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C79" s="24">
         <v>200</v>
       </c>
-      <c r="D78" s="28">
-        <v>5.6253587060000001</v>
-      </c>
-      <c r="E78" s="28">
-        <v>421432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="29" t="s">
+      <c r="D79" s="24">
+        <v>5.3236247299999997</v>
+      </c>
+      <c r="E79" s="24">
+        <v>392446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C80" s="24">
         <v>200</v>
       </c>
-      <c r="D79" s="28">
-        <v>5.3236247299999997</v>
-      </c>
-      <c r="E79" s="28">
-        <v>392446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="29" t="s">
+      <c r="D80" s="24">
+        <v>5.171464405</v>
+      </c>
+      <c r="E80" s="24">
+        <v>368178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C81" s="24">
         <v>200</v>
       </c>
-      <c r="D80" s="28">
-        <v>5.171464405</v>
-      </c>
-      <c r="E80" s="28">
-        <v>368178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="29" t="s">
+      <c r="D81" s="24">
+        <v>5.1350683310000003</v>
+      </c>
+      <c r="E81" s="24">
+        <v>395642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C82" s="24">
         <v>200</v>
       </c>
-      <c r="D81" s="28">
-        <v>5.1350683310000003</v>
-      </c>
-      <c r="E81" s="28">
-        <v>395642</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="29" t="s">
+      <c r="D82" s="24">
+        <v>5.0777309600000002</v>
+      </c>
+      <c r="E82" s="24">
+        <v>360184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C83" s="24">
+        <v>199</v>
+      </c>
+      <c r="D83" s="24">
+        <v>5.0458921800000001</v>
+      </c>
+      <c r="E83" s="24">
+        <v>373481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="24">
         <v>200</v>
       </c>
-      <c r="D82" s="28">
-        <v>5.0777309600000002</v>
-      </c>
-      <c r="E82" s="28">
-        <v>360184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="28">
-        <v>199</v>
-      </c>
-      <c r="D83" s="28">
-        <v>5.0458921800000001</v>
-      </c>
-      <c r="E83" s="28">
-        <v>373481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="29" t="s">
+      <c r="D84" s="24">
+        <v>4.7935966040000002</v>
+      </c>
+      <c r="E84" s="24">
+        <v>375226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C85" s="24">
         <v>200</v>
       </c>
-      <c r="D84" s="28">
-        <v>4.7935966040000002</v>
-      </c>
-      <c r="E84" s="28">
-        <v>375226</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="29" t="s">
+      <c r="D85" s="24">
+        <v>4.7308961690000002</v>
+      </c>
+      <c r="E85" s="24">
+        <v>399112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C86" s="24">
         <v>200</v>
       </c>
-      <c r="D85" s="28">
-        <v>4.7308961690000002</v>
-      </c>
-      <c r="E85" s="28">
-        <v>399112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="29" t="s">
+      <c r="D86" s="24">
+        <v>4.5044766699999998</v>
+      </c>
+      <c r="E86" s="24">
+        <v>362952</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C87" s="24">
         <v>200</v>
       </c>
-      <c r="D86" s="28">
-        <v>4.5044766699999998</v>
-      </c>
-      <c r="E86" s="28">
-        <v>362952</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="29" t="s">
+      <c r="D87" s="24">
+        <v>4.4358583229999997</v>
+      </c>
+      <c r="E87" s="24">
+        <v>369410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C88" s="24">
         <v>200</v>
       </c>
-      <c r="D87" s="28">
-        <v>4.4358583229999997</v>
-      </c>
-      <c r="E87" s="28">
-        <v>369410</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="29" t="s">
+      <c r="D88" s="24">
+        <v>4.431451526</v>
+      </c>
+      <c r="E88" s="24">
+        <v>328746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="B89" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="28">
+      <c r="C89" s="24">
         <v>200</v>
       </c>
-      <c r="D88" s="28">
-        <v>4.431451526</v>
-      </c>
-      <c r="E88" s="28">
-        <v>328746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="29" t="s">
+      <c r="D89" s="24">
+        <v>4.342668593</v>
+      </c>
+      <c r="E89" s="24">
+        <v>357700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C90" s="24">
         <v>200</v>
       </c>
-      <c r="D89" s="28">
-        <v>4.342668593</v>
-      </c>
-      <c r="E89" s="28">
-        <v>357700</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="29" t="s">
+      <c r="D90" s="24">
+        <v>4.3260781000000001</v>
+      </c>
+      <c r="E90" s="24">
+        <v>356224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C91" s="24">
         <v>200</v>
       </c>
-      <c r="D90" s="28">
-        <v>4.3260781000000001</v>
-      </c>
-      <c r="E90" s="28">
-        <v>356224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="29" t="s">
+      <c r="D91" s="24">
+        <v>4.1435141919999996</v>
+      </c>
+      <c r="E91" s="24">
+        <v>359404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C92" s="24">
         <v>200</v>
       </c>
-      <c r="D91" s="28">
-        <v>4.1435141919999996</v>
-      </c>
-      <c r="E91" s="28">
-        <v>359404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="29" t="s">
+      <c r="D92" s="24">
+        <v>4.1391267279999999</v>
+      </c>
+      <c r="E92" s="24">
+        <v>350600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C93" s="24">
         <v>200</v>
       </c>
-      <c r="D92" s="28">
-        <v>4.1391267279999999</v>
-      </c>
-      <c r="E92" s="28">
-        <v>350600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="29" t="s">
+      <c r="D93" s="24">
+        <v>4.0203335769999997</v>
+      </c>
+      <c r="E93" s="24">
+        <v>367582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C94" s="24">
         <v>200</v>
       </c>
-      <c r="D93" s="28">
-        <v>4.0203335769999997</v>
-      </c>
-      <c r="E93" s="28">
-        <v>367582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="29" t="s">
+      <c r="D94" s="24">
+        <v>3.9886239090000002</v>
+      </c>
+      <c r="E94" s="24">
+        <v>383602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C95" s="24">
         <v>200</v>
       </c>
-      <c r="D94" s="28">
-        <v>3.9886239090000002</v>
-      </c>
-      <c r="E94" s="28">
-        <v>383602</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="29" t="s">
+      <c r="D95" s="24">
+        <v>3.9799340839999999</v>
+      </c>
+      <c r="E95" s="24">
+        <v>357562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C96" s="24">
         <v>200</v>
       </c>
-      <c r="D95" s="28">
-        <v>3.9799340839999999</v>
-      </c>
-      <c r="E95" s="28">
+      <c r="D96" s="24">
+        <v>3.803385665</v>
+      </c>
+      <c r="E96" s="24">
+        <v>344396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="24">
+        <v>200</v>
+      </c>
+      <c r="D97" s="24">
+        <v>3.740297558</v>
+      </c>
+      <c r="E97" s="24">
         <v>357562</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="28">
+    <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="24">
         <v>200</v>
       </c>
-      <c r="D96" s="28">
-        <v>3.803385665</v>
-      </c>
-      <c r="E96" s="28">
-        <v>344396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="28">
+      <c r="D98" s="24">
+        <v>3.4484699490000001</v>
+      </c>
+      <c r="E98" s="24">
+        <v>340922</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="24">
         <v>200</v>
       </c>
-      <c r="D97" s="28">
-        <v>3.740297558</v>
-      </c>
-      <c r="E97" s="28">
-        <v>357562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="28">
+      <c r="D99" s="24">
+        <v>3.3451836039999998</v>
+      </c>
+      <c r="E99" s="24">
+        <v>336080</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="B100" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="24">
+        <v>198</v>
+      </c>
+      <c r="D100" s="24">
+        <v>3.2125032980000001</v>
+      </c>
+      <c r="E100" s="24">
+        <v>343132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="24">
         <v>200</v>
       </c>
-      <c r="D98" s="28">
-        <v>3.4484699490000001</v>
-      </c>
-      <c r="E98" s="28">
-        <v>340922</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" s="28">
+      <c r="D101" s="24">
+        <v>3.1281510360000002</v>
+      </c>
+      <c r="E101" s="24">
+        <v>321772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="24">
         <v>200</v>
       </c>
-      <c r="D99" s="28">
-        <v>3.3451836039999998</v>
-      </c>
-      <c r="E99" s="28">
-        <v>336080</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" s="28">
-        <v>198</v>
-      </c>
-      <c r="D100" s="28">
-        <v>3.2125032980000001</v>
-      </c>
-      <c r="E100" s="28">
-        <v>343132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="28">
-        <v>200</v>
-      </c>
-      <c r="D101" s="28">
-        <v>3.1281510360000002</v>
-      </c>
-      <c r="E101" s="28">
-        <v>321772</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" s="28">
-        <v>200</v>
-      </c>
-      <c r="D102" s="28">
+      <c r="D102" s="24">
         <v>2.7146338729999999</v>
       </c>
-      <c r="E102" s="28">
+      <c r="E102" s="24">
         <v>315270</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="27"/>
+      <c r="C103" s="23"/>
       <c r="D103">
         <f>AVERAGE(D70:D102)</f>
         <v>14.588507477878787</v>
@@ -38301,5 +40893,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>